--- a/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
+++ b/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\BFoCSbQL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="BFoCSbQL-residential" sheetId="3" r:id="rId3"/>
-    <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId4"/>
+    <sheet name="BFoCSbQL-urban-residential" sheetId="3" r:id="rId3"/>
+    <sheet name="BFoCSbQL-rural-residential" sheetId="5" r:id="rId4"/>
+    <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>Source:</t>
   </si>
@@ -220,9 +226,6 @@
     <t>heating</t>
   </si>
   <si>
-    <t>Building component</t>
-  </si>
-  <si>
     <t>envelope</t>
   </si>
   <si>
@@ -251,12 +254,24 @@
   </si>
   <si>
     <t>See next tab for table numbers and links</t>
+  </si>
+  <si>
+    <t>For the U.S., we use the same fractions for urban residential and rural residential.</t>
+  </si>
+  <si>
+    <t>Dimensionless fraction of total components</t>
+  </si>
+  <si>
+    <t>This variable captures what BAU fraction of new building components qualify</t>
+  </si>
+  <si>
+    <t>for energy efficient rebates.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -335,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -362,6 +377,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -372,6 +391,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -420,7 +442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,7 +477,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -664,9 +686,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -694,32 +718,47 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>73</v>
+      <c r="A9" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
+      <c r="A10" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +802,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1396,15 +1435,15 @@
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>67</v>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1435,7 +1474,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="15">
         <f t="shared" si="0"/>
@@ -1510,15 +1549,15 @@
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>67</v>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,7 +1588,118 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="15">
+        <f t="shared" si="0"/>
+        <v>0.56609034267912772</v>
+      </c>
+      <c r="C4" s="15">
+        <f>AVERAGE(C2:C3)</f>
+        <v>0.43390965732087228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C5">
+        <f>Data!D15</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.32982758620689656</v>
+      </c>
+      <c r="C6" s="11">
+        <f>SUMPRODUCT(Data!C16:C18,Data!D16:D18)/SUM(Data!C16:C18)</f>
+        <v>0.67017241379310344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.48876582108507738</v>
+      </c>
+      <c r="C7" s="11">
+        <f>SUMPRODUCT(Data!C27:C31,Data!D27:D31)/SUM(Data!C27:C31)</f>
+        <v>0.51123417891492262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="11">
+        <f>1-C2</f>
+        <v>0.40218068535825546</v>
+      </c>
+      <c r="C2" s="11">
+        <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
+        <v>0.59781931464174454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="11">
+        <f t="shared" ref="B3:B7" si="0">1-C3</f>
+        <v>0.73</v>
+      </c>
+      <c r="C3">
+        <f>Data!D12</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
       </c>
       <c r="B4" s="15">
         <f t="shared" si="0"/>
